--- a/src/test/resources/data/nominaciones/cliente/ROSCOGAS.xlsx
+++ b/src/test/resources/data/nominaciones/cliente/ROSCOGAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\1. CENIT\1. Soporte Synthesis\Praxis\Data-Pruebas\Nominación por Cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\cenit-cp\src\test\resources\data\nominaciones\cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DABDA6-6F60-457A-87B9-1A50EB19612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0331C67-BE9B-4126-9FFE-8DB6CA51B87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NomUpload" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,9 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="12" customHeight="1"/>
   <cols>
@@ -549,7 +551,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="4">
-        <v>3112</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15">
@@ -575,7 +577,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="4">
-        <v>3112</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
